--- a/medicine/Psychotrope/Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan/Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan.xlsx
+++ b/medicine/Psychotrope/Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan/Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_Arts_et_des_M%C3%A9tiers_du_vin_-_Ch%C3%A2teau_Turcan</t>
+          <t>Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée des Arts et des Métiers du vin du Château Turcan est un musée privé situé à proximité du village d'Ansouis, en Vaucluse. Créé en 1981, les collections permanentes illustrent tout ce qui touche à la vigne et au vin, de son élaboration jusqu'à sa consommation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_Arts_et_des_M%C3%A9tiers_du_vin_-_Ch%C3%A2teau_Turcan</t>
+          <t>Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée a ouvert ses portes en 1981 et présentait au sein même du domaine viticole du Château Turcan toutes sortes d'objets relatifs à la fabrication du vin : outils de travail de la terre, de traitement et d’entretien des vignes, de vie quotidienne des vignerons... mais aussi les outils de tonneliers et d'eonologues[réf. souhaitée].
 Peu à peu la collection s'est agrandie : l'achat de plusieurs collections privées a permis de compléter le musée (en 2000, la Collection Siebold et en 2005 les Collections Taransaud et Seagram).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_Arts_et_des_M%C3%A9tiers_du_vin_-_Ch%C3%A2teau_Turcan</t>
+          <t>Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parcours muséographique du musée s’articule autour de plusieurs thèmes :
 De la vigne au vin
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_Arts_et_des_M%C3%A9tiers_du_vin_-_Ch%C3%A2teau_Turcan</t>
+          <t>Musée_des_Arts_et_des_Métiers_du_vin_-_Château_Turcan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Le Carré des pressoirs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous une vaste halle de 400 m2, sont rassemblés plusieurs pressoirs monumentaux anciens[réf. nécessaire]. Le lieu est un « conservatoire » où sont préservés des témoins en voie de disparition de l’évolution de ces techniques. Quatorze pressoirs, s’étageant de la fin du Moyen Âge au début du XXe siècle, sont présentés au public[réf. nécessaire]. Depuis les pressoirs monumentaux de communauté ou d’abbaye jusqu’aux plus modestes pressoirs domestiques, fixes ou mobiles, toutes les techniques sont représentées.
 			Pressoir à grand point
